--- a/Collections/Ukraine/#Ukraine#Regular#[1992-present]#circulation_quality — копия.xlsx
+++ b/Collections/Ukraine/#Ukraine#Regular#[1992-present]#circulation_quality — копия.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\Ukraine\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04C37839-B7A7-47FD-920D-D2BB7172828B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02A1FC6E-0B82-480E-BF38-9E38D4EE9723}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1копійка" sheetId="4" r:id="rId1"/>
@@ -25,6 +25,18 @@
     <sheet name="10гривень" sheetId="13" r:id="rId10"/>
     <sheet name="Links" sheetId="3" r:id="rId11"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">' 1гривня'!$B$2:$F$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'10гривень'!$B$2:$E$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'10копійок'!$B$2:$F$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1копійка'!$B$2:$F$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'25копійок'!$B$2:$G$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'2гривнi'!$B$2:$E$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'2копійки'!$B$2:$F$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'50копійок'!$B$2:$F$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'5гривень'!$B$2:$E$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'5копійок'!$B$2:$F$2</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -764,7 +776,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1953" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1953" uniqueCount="146">
   <si>
     <t>-</t>
   </si>
@@ -776,12 +788,6 @@
   </si>
   <si>
     <t>Mintage</t>
-  </si>
-  <si>
-    <t>Subtype_1</t>
-  </si>
-  <si>
-    <t>Subtype_2</t>
   </si>
   <si>
     <t>1копійка</t>
@@ -1191,6 +1197,24 @@
   <si>
     <t>115 020 000</t>
   </si>
+  <si>
+    <t>Subtype_2#Special_distinctions_1</t>
+  </si>
+  <si>
+    <t>Subtype_1#Special_marks_1</t>
+  </si>
+  <si>
+    <t>Subtype_2#Special_distinctions_2</t>
+  </si>
+  <si>
+    <t>Subtype_1#Special_distinctions_1</t>
+  </si>
+  <si>
+    <t>Subtype_1#Magnetic</t>
+  </si>
+  <si>
+    <t>Subtype_1#Obverse</t>
+  </si>
 </sst>
 </file>
 
@@ -1465,7 +1489,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1550,16 +1574,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1581,39 +1605,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="245">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="243">
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
     </dxf>
@@ -3564,9 +3562,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="3" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -3871,30 +3869,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I27" sqref="I27"/>
+      <selection pane="bottomRight" activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="9" customWidth="1"/>
-    <col min="3" max="4" width="24.81640625" customWidth="1"/>
-    <col min="5" max="6" width="12.453125" customWidth="1"/>
-    <col min="7" max="8" width="3.81640625" customWidth="1"/>
-    <col min="9" max="9" width="13.7265625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="9" customWidth="1"/>
+    <col min="3" max="4" width="33.6328125" customWidth="1"/>
+    <col min="5" max="6" width="12.6328125" customWidth="1"/>
+    <col min="7" max="8" width="3.6328125" customWidth="1"/>
+    <col min="9" max="9" width="12.6328125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="32" t="s">
-        <v>37</v>
-      </c>
+      <c r="B1" s="30"/>
       <c r="C1" s="34" t="s">
         <v>2</v>
       </c>
@@ -3904,30 +3900,32 @@
       </c>
       <c r="F1" s="37"/>
       <c r="G1" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="39"/>
+    </row>
+    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="33"/>
+      <c r="B2" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="39"/>
-    </row>
-    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="31"/>
-      <c r="B2" s="33"/>
-      <c r="C2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="G2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -3935,14 +3933,14 @@
         <v>1992</v>
       </c>
       <c r="B3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>13</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>0</v>
@@ -3993,10 +3991,10 @@
         <v>1994</v>
       </c>
       <c r="B5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>13</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="7" t="s">
@@ -4051,17 +4049,17 @@
         <v>1996</v>
       </c>
       <c r="B7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>13</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G7" s="8" t="s">
         <v>0</v>
@@ -4170,17 +4168,17 @@
         <v>2000</v>
       </c>
       <c r="B11" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>13</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G11" s="8" t="s">
         <v>0</v>
@@ -4198,17 +4196,17 @@
         <v>2001</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G12" s="8" t="s">
         <v>0</v>
@@ -4226,17 +4224,17 @@
         <v>2002</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G13" s="8" t="s">
         <v>0</v>
@@ -4254,17 +4252,17 @@
         <v>2003</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G14" s="8" t="s">
         <v>0</v>
@@ -4282,17 +4280,17 @@
         <v>2004</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G15" s="8" t="s">
         <v>0</v>
@@ -4310,17 +4308,17 @@
         <v>2005</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G16" s="8" t="s">
         <v>0</v>
@@ -4338,17 +4336,17 @@
         <v>2006</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G17" s="8" t="s">
         <v>0</v>
@@ -4366,17 +4364,17 @@
         <v>2007</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G18" s="8" t="s">
         <v>0</v>
@@ -4394,17 +4392,17 @@
         <v>2008</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G19" s="8" t="s">
         <v>0</v>
@@ -4422,17 +4420,17 @@
         <v>2009</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G20" s="8" t="s">
         <v>0</v>
@@ -4450,17 +4448,17 @@
         <v>2010</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G21" s="8" t="s">
         <v>0</v>
@@ -4478,17 +4476,17 @@
         <v>2011</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G22" s="8" t="s">
         <v>0</v>
@@ -4506,17 +4504,17 @@
         <v>2012</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G23" s="8" t="s">
         <v>0</v>
@@ -4534,17 +4532,17 @@
         <v>2013</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F24" s="27" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G24" s="8" t="s">
         <v>0</v>
@@ -4562,17 +4560,17 @@
         <v>2014</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D25" s="3"/>
       <c r="E25" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F25" s="27" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G25" s="8" t="s">
         <v>0</v>
@@ -4590,17 +4588,17 @@
         <v>2015</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D26" s="3"/>
       <c r="E26" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F26" s="27" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G26" s="8" t="s">
         <v>0</v>
@@ -4618,17 +4616,17 @@
         <v>2016</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F27" s="27" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G27" s="8" t="s">
         <v>0</v>
@@ -4676,17 +4674,17 @@
         <v>2018</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D29" s="3"/>
       <c r="E29" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F29" s="27" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G29" s="8" t="s">
         <v>0</v>
@@ -4880,9 +4878,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <autoFilter ref="B2:F2" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <mergeCells count="4">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:H1"/>
@@ -4913,12 +4911,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8:G27 H24:H27 G29:H29">
-    <cfRule type="containsText" dxfId="244" priority="61" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="242" priority="61" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G8))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3">
-    <cfRule type="containsText" dxfId="243" priority="59" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="241" priority="59" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4935,11 +4933,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8:H10">
-    <cfRule type="containsText" dxfId="242" priority="55" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="240" priority="55" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H8))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H23 H21">
+  <conditionalFormatting sqref="H21 H23">
     <cfRule type="colorScale" priority="52">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4952,7 +4950,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H21 H23">
-    <cfRule type="containsText" dxfId="241" priority="51" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="239" priority="51" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4969,7 +4967,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11:H20 H22">
-    <cfRule type="containsText" dxfId="240" priority="53" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="238" priority="53" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4986,7 +4984,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4">
-    <cfRule type="containsText" dxfId="239" priority="47" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="237" priority="47" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5003,7 +5001,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4">
-    <cfRule type="containsText" dxfId="238" priority="43" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="236" priority="43" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5020,7 +5018,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G32:G33">
-    <cfRule type="containsText" dxfId="237" priority="23" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="235" priority="23" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G32))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5037,7 +5035,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G30:G31">
-    <cfRule type="containsText" dxfId="236" priority="27" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="234" priority="27" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G30))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5054,7 +5052,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6">
-    <cfRule type="containsText" dxfId="235" priority="33" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="233" priority="33" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G6))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5071,7 +5069,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="containsText" dxfId="234" priority="31" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="232" priority="31" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H6))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5088,7 +5086,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H30:H31">
-    <cfRule type="containsText" dxfId="233" priority="25" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="231" priority="25" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H30))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5105,7 +5103,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H32:H33">
-    <cfRule type="containsText" dxfId="232" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="230" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H32))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5122,7 +5120,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G34:G35">
-    <cfRule type="containsText" dxfId="231" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="229" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G34))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5139,7 +5137,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H34:H35">
-    <cfRule type="containsText" dxfId="230" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="228" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H34))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5168,7 +5166,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7">
-    <cfRule type="containsText" dxfId="229" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="227" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G7))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5185,7 +5183,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5">
-    <cfRule type="containsText" dxfId="228" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="226" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G5))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5202,7 +5200,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="containsText" dxfId="227" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="225" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5219,12 +5217,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5">
-    <cfRule type="containsText" dxfId="226" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="224" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="containsText" dxfId="225" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="223" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5241,7 +5239,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G28">
-    <cfRule type="containsText" dxfId="224" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="222" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G28))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5258,7 +5256,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H28">
-    <cfRule type="containsText" dxfId="223" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="221" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H28))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5276,53 +5274,53 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G39" sqref="G39"/>
+      <selection pane="bottomRight" activeCell="E2" sqref="B2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="9" customWidth="1"/>
-    <col min="3" max="4" width="24.81640625" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" customWidth="1"/>
-    <col min="6" max="6" width="3.81640625" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="9" customWidth="1"/>
+    <col min="3" max="4" width="33.6328125" customWidth="1"/>
+    <col min="5" max="5" width="12.6328125" customWidth="1"/>
+    <col min="6" max="6" width="3.6328125" customWidth="1"/>
+    <col min="7" max="7" width="12.6328125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="C1" s="43" t="s">
+      <c r="B1" s="30"/>
+      <c r="C1" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="44"/>
+      <c r="D1" s="35"/>
       <c r="E1" s="25" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G1" s="14"/>
       <c r="H1" s="14"/>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="42"/>
-      <c r="B2" s="33"/>
-      <c r="C2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>5</v>
+      <c r="A2" s="33"/>
+      <c r="B2" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>142</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G2" s="17"/>
       <c r="H2" s="18"/>
@@ -6006,12 +6004,12 @@
         <v>2020</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
       <c r="E31" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F31" s="8">
         <v>0</v>
@@ -6026,12 +6024,12 @@
         <v>2021</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
       <c r="E32" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F32" s="8">
         <v>0</v>
@@ -6070,12 +6068,12 @@
         <v>2023</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
       <c r="E34" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F34" s="8">
         <v>0</v>
@@ -6122,9 +6120,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <autoFilter ref="B2:E2" xr:uid="{9C985906-1F40-4F9F-A28B-610F2E45FBC5}"/>
+  <mergeCells count="2">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="F3:F28">
@@ -6140,24 +6138,24 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F28">
-    <cfRule type="containsText" dxfId="10" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="8" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="F34 F32">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="F32 F34">
-    <cfRule type="colorScale" priority="12">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F32 F34">
-    <cfRule type="containsText" dxfId="9" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="7" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6174,7 +6172,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F29:F30">
-    <cfRule type="containsText" dxfId="8" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="6" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F29))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6191,7 +6189,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F31">
-    <cfRule type="containsText" dxfId="7" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6208,7 +6206,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F33">
-    <cfRule type="containsText" dxfId="6" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F33))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6225,7 +6223,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F35">
-    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F35))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6255,13 +6253,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="13" t="s">
         <v>27</v>
-      </c>
-      <c r="B1" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -6269,10 +6267,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -6280,10 +6278,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="32.15" customHeight="1" x14ac:dyDescent="0.35">
@@ -6291,10 +6289,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -6302,10 +6300,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="23" t="s">
         <v>34</v>
-      </c>
-      <c r="C5" s="23" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -6313,7 +6311,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C6" s="29"/>
     </row>
@@ -6341,26 +6339,24 @@
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I15" sqref="I15"/>
+      <selection pane="bottomRight" activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="9" customWidth="1"/>
-    <col min="3" max="4" width="24.81640625" customWidth="1"/>
-    <col min="5" max="6" width="12.453125" customWidth="1"/>
-    <col min="7" max="8" width="3.81640625" customWidth="1"/>
-    <col min="9" max="9" width="13.7265625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="9" customWidth="1"/>
+    <col min="3" max="4" width="33.6328125" customWidth="1"/>
+    <col min="5" max="6" width="12.6328125" customWidth="1"/>
+    <col min="7" max="8" width="3.6328125" customWidth="1"/>
+    <col min="9" max="9" width="12.6328125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="32" t="s">
-        <v>37</v>
-      </c>
+      <c r="B1" s="30"/>
       <c r="C1" s="34" t="s">
         <v>2</v>
       </c>
@@ -6370,30 +6366,32 @@
       </c>
       <c r="F1" s="37"/>
       <c r="G1" s="38" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H1" s="39"/>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="31"/>
-      <c r="B2" s="33"/>
+      <c r="A2" s="33"/>
+      <c r="B2" s="31" t="s">
+        <v>35</v>
+      </c>
       <c r="C2" s="2" t="s">
-        <v>4</v>
+        <v>143</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>5</v>
+        <v>142</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -6401,7 +6399,7 @@
         <v>1992</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -6427,12 +6425,12 @@
         <v>1993</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>0</v>
@@ -6453,12 +6451,12 @@
         <v>1994</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>0</v>
@@ -6509,12 +6507,12 @@
         <v>1996</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>0</v>
@@ -6656,7 +6654,7 @@
         <v>2001</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -6664,7 +6662,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G12" s="8" t="s">
         <v>0</v>
@@ -6682,7 +6680,7 @@
         <v>2002</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -6690,7 +6688,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G13" s="8" t="s">
         <v>0</v>
@@ -6708,7 +6706,7 @@
         <v>2003</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -6716,7 +6714,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="27" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G14" s="8" t="s">
         <v>0</v>
@@ -6734,7 +6732,7 @@
         <v>2004</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -6742,7 +6740,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G15" s="8" t="s">
         <v>0</v>
@@ -6760,7 +6758,7 @@
         <v>2005</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -6768,7 +6766,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G16" s="8" t="s">
         <v>0</v>
@@ -6786,7 +6784,7 @@
         <v>2006</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -6794,7 +6792,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G17" s="8" t="s">
         <v>0</v>
@@ -6812,7 +6810,7 @@
         <v>2007</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -6820,7 +6818,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G18" s="8" t="s">
         <v>0</v>
@@ -6838,7 +6836,7 @@
         <v>2008</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -6846,7 +6844,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G19" s="8" t="s">
         <v>0</v>
@@ -6864,7 +6862,7 @@
         <v>2009</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -6872,7 +6870,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G20" s="8" t="s">
         <v>0</v>
@@ -6890,7 +6888,7 @@
         <v>2010</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -6898,7 +6896,7 @@
         <v>0</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G21" s="8" t="s">
         <v>0</v>
@@ -6916,7 +6914,7 @@
         <v>2011</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -6924,7 +6922,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G22" s="8" t="s">
         <v>0</v>
@@ -6942,7 +6940,7 @@
         <v>2012</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
@@ -6950,7 +6948,7 @@
         <v>0</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G23" s="8" t="s">
         <v>0</v>
@@ -6968,7 +6966,7 @@
         <v>2013</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -6976,7 +6974,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="27" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G24" s="8" t="s">
         <v>0</v>
@@ -6994,7 +6992,7 @@
         <v>2014</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
@@ -7002,7 +7000,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="27" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G25" s="8" t="s">
         <v>0</v>
@@ -7020,7 +7018,7 @@
         <v>2015</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
@@ -7028,7 +7026,7 @@
         <v>0</v>
       </c>
       <c r="F26" s="27" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G26" s="8" t="s">
         <v>0</v>
@@ -7046,7 +7044,7 @@
         <v>2016</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
@@ -7054,7 +7052,7 @@
         <v>0</v>
       </c>
       <c r="F27" s="27" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G27" s="8" t="s">
         <v>0</v>
@@ -7102,7 +7100,7 @@
         <v>2018</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
@@ -7110,7 +7108,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="27" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G29" s="8" t="s">
         <v>0</v>
@@ -7304,9 +7302,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <autoFilter ref="B2:F2" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
+  <mergeCells count="4">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:H1"/>
@@ -7336,7 +7334,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H23 H21">
+  <conditionalFormatting sqref="H21 H23">
     <cfRule type="colorScale" priority="56">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -7349,12 +7347,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12:H13 H22 H15:H20">
-    <cfRule type="containsText" dxfId="222" priority="57" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="220" priority="57" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H21 H23">
-    <cfRule type="containsText" dxfId="221" priority="55" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="219" priority="55" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7419,32 +7417,32 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8:G27 H24:H27 G29:H29">
-    <cfRule type="containsText" dxfId="220" priority="61" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="218" priority="61" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G8))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7:H10">
-    <cfRule type="containsText" dxfId="219" priority="59" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="217" priority="59" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H7))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5">
-    <cfRule type="containsText" dxfId="218" priority="39" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="216" priority="39" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H5))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4">
-    <cfRule type="containsText" dxfId="217" priority="47" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="215" priority="47" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H4))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="containsText" dxfId="216" priority="35" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="214" priority="35" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H6))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="containsText" dxfId="215" priority="43" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="213" priority="43" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7461,7 +7459,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11">
-    <cfRule type="containsText" dxfId="214" priority="31" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="212" priority="31" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H11))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7478,7 +7476,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3">
-    <cfRule type="containsText" dxfId="213" priority="27" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="211" priority="27" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7495,7 +7493,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5">
-    <cfRule type="containsText" dxfId="212" priority="25" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="210" priority="25" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7512,7 +7510,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6">
-    <cfRule type="containsText" dxfId="211" priority="23" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="209" priority="23" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G6))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7529,7 +7527,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7">
-    <cfRule type="containsText" dxfId="210" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="208" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7546,7 +7544,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4">
-    <cfRule type="containsText" dxfId="209" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="207" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7563,7 +7561,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G30:G31">
-    <cfRule type="containsText" dxfId="208" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="206" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G30))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7580,7 +7578,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H30:H31">
-    <cfRule type="containsText" dxfId="207" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="205" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H30))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7597,7 +7595,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G32:G33">
-    <cfRule type="containsText" dxfId="206" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="204" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G32))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7614,7 +7612,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H32:H33">
-    <cfRule type="containsText" dxfId="205" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="203" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H32))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7631,7 +7629,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G34:G35">
-    <cfRule type="containsText" dxfId="204" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="202" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G34))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7648,7 +7646,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H34:H35">
-    <cfRule type="containsText" dxfId="203" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="201" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H34))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7665,7 +7663,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G28">
-    <cfRule type="containsText" dxfId="202" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="200" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G28))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7682,7 +7680,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H28">
-    <cfRule type="containsText" dxfId="201" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="199" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H28))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7699,7 +7697,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H14">
-    <cfRule type="containsText" dxfId="200" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="198" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H14))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7717,26 +7715,24 @@
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I13" sqref="I13"/>
+      <selection pane="bottomRight" activeCell="F2" sqref="B2:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="9" customWidth="1"/>
-    <col min="3" max="4" width="24.81640625" customWidth="1"/>
-    <col min="5" max="6" width="12.453125" customWidth="1"/>
-    <col min="7" max="8" width="3.81640625" customWidth="1"/>
-    <col min="9" max="9" width="13.7265625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="9" customWidth="1"/>
+    <col min="3" max="4" width="33.6328125" customWidth="1"/>
+    <col min="5" max="6" width="12.6328125" customWidth="1"/>
+    <col min="7" max="8" width="3.6328125" customWidth="1"/>
+    <col min="9" max="9" width="12.6328125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="32" t="s">
-        <v>37</v>
-      </c>
+      <c r="B1" s="30"/>
       <c r="C1" s="34" t="s">
         <v>2</v>
       </c>
@@ -7746,30 +7742,32 @@
       </c>
       <c r="F1" s="37"/>
       <c r="G1" s="38" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H1" s="39"/>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="31"/>
-      <c r="B2" s="33"/>
+      <c r="A2" s="33"/>
+      <c r="B2" s="31" t="s">
+        <v>35</v>
+      </c>
       <c r="C2" s="2" t="s">
-        <v>4</v>
+        <v>141</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>5</v>
+        <v>140</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="G2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -7777,14 +7775,14 @@
         <v>1992</v>
       </c>
       <c r="B3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>13</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>0</v>
@@ -7835,10 +7833,10 @@
         <v>1994</v>
       </c>
       <c r="B5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>13</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="4">
@@ -7893,10 +7891,10 @@
         <v>1996</v>
       </c>
       <c r="B7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>13</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="28">
@@ -8042,17 +8040,17 @@
         <v>2001</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F12" s="27" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G12" s="8" t="s">
         <v>0</v>
@@ -8100,17 +8098,17 @@
         <v>2003</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G14" s="8" t="s">
         <v>0</v>
@@ -8128,17 +8126,17 @@
         <v>2004</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G15" s="8" t="s">
         <v>0</v>
@@ -8156,17 +8154,17 @@
         <v>2005</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G16" s="8" t="s">
         <v>0</v>
@@ -8184,17 +8182,17 @@
         <v>2006</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G17" s="8" t="s">
         <v>0</v>
@@ -8212,17 +8210,17 @@
         <v>2007</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G18" s="8" t="s">
         <v>0</v>
@@ -8240,17 +8238,17 @@
         <v>2008</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G19" s="8" t="s">
         <v>0</v>
@@ -8268,17 +8266,17 @@
         <v>2009</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G20" s="8" t="s">
         <v>0</v>
@@ -8296,17 +8294,17 @@
         <v>2010</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G21" s="8" t="s">
         <v>0</v>
@@ -8324,17 +8322,17 @@
         <v>2011</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G22" s="8" t="s">
         <v>0</v>
@@ -8352,17 +8350,17 @@
         <v>2012</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G23" s="8" t="s">
         <v>0</v>
@@ -8380,17 +8378,17 @@
         <v>2013</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G24" s="8" t="s">
         <v>0</v>
@@ -8408,17 +8406,17 @@
         <v>2014</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D25" s="3"/>
       <c r="E25" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G25" s="8" t="s">
         <v>0</v>
@@ -8436,17 +8434,17 @@
         <v>2015</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D26" s="3"/>
       <c r="E26" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G26" s="8" t="s">
         <v>0</v>
@@ -8464,17 +8462,17 @@
         <v>2016</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F27" s="27" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G27" s="8" t="s">
         <v>0</v>
@@ -8522,17 +8520,17 @@
         <v>2018</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D29" s="3"/>
       <c r="E29" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F29" s="27" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G29" s="8" t="s">
         <v>0</v>
@@ -8726,9 +8724,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <autoFilter ref="B2:F2" xr:uid="{00000000-0001-0000-0200-000000000000}"/>
+  <mergeCells count="4">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:H1"/>
@@ -8781,7 +8779,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H23 H21 H25">
+  <conditionalFormatting sqref="H21 H23 H25">
     <cfRule type="colorScale" priority="52">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -8794,22 +8792,22 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H14:H20 H22 H24 H26">
-    <cfRule type="containsText" dxfId="199" priority="53" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="197" priority="53" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H21 H23 H25">
-    <cfRule type="containsText" dxfId="198" priority="51" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="196" priority="51" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8:G12 G14:G27 G29">
-    <cfRule type="containsText" dxfId="197" priority="61" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="195" priority="61" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G8))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3">
-    <cfRule type="containsText" dxfId="196" priority="59" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="194" priority="59" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8862,27 +8860,27 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5">
-    <cfRule type="containsText" dxfId="195" priority="49" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="193" priority="49" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7:H10">
-    <cfRule type="containsText" dxfId="194" priority="55" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="192" priority="55" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H7))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4">
-    <cfRule type="containsText" dxfId="193" priority="47" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="191" priority="47" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G4))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4">
-    <cfRule type="containsText" dxfId="192" priority="43" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="190" priority="43" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H4))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="containsText" dxfId="191" priority="39" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="189" priority="39" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8899,7 +8897,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5">
-    <cfRule type="containsText" dxfId="190" priority="35" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="188" priority="35" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H5))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8916,7 +8914,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6">
-    <cfRule type="containsText" dxfId="189" priority="33" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="187" priority="33" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G6))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8933,7 +8931,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="containsText" dxfId="188" priority="31" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="186" priority="31" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H6))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8950,7 +8948,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7">
-    <cfRule type="containsText" dxfId="187" priority="29" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="185" priority="29" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8967,7 +8965,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11">
-    <cfRule type="containsText" dxfId="186" priority="27" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="184" priority="27" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H11))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8984,7 +8982,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G30:G31">
-    <cfRule type="containsText" dxfId="185" priority="25" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="183" priority="25" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G30))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9001,7 +8999,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H30:H31">
-    <cfRule type="containsText" dxfId="184" priority="23" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="182" priority="23" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H30))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9018,7 +9016,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G32:G33">
-    <cfRule type="containsText" dxfId="183" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="181" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G32))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9035,7 +9033,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H32:H33">
-    <cfRule type="containsText" dxfId="182" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="180" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H32))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9052,7 +9050,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G34:G35">
-    <cfRule type="containsText" dxfId="181" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="179" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G34))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9069,7 +9067,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H34:H35">
-    <cfRule type="containsText" dxfId="180" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="178" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H34))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9086,7 +9084,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12">
-    <cfRule type="containsText" dxfId="179" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="177" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H12))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9103,7 +9101,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G13">
-    <cfRule type="containsText" dxfId="178" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="176" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G13))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9120,7 +9118,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13">
-    <cfRule type="containsText" dxfId="177" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="175" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H13))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9137,7 +9135,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H27">
-    <cfRule type="containsText" dxfId="176" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="174" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H27))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9154,7 +9152,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G28">
-    <cfRule type="containsText" dxfId="175" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="173" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G28))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9171,7 +9169,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H28">
-    <cfRule type="containsText" dxfId="174" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="172" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H28))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9188,7 +9186,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H29">
-    <cfRule type="containsText" dxfId="173" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="171" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H29))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9206,26 +9204,24 @@
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H19" sqref="G19:I20"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="9" customWidth="1"/>
-    <col min="3" max="4" width="24.81640625" customWidth="1"/>
-    <col min="5" max="6" width="12.453125" customWidth="1"/>
-    <col min="7" max="8" width="3.81640625" customWidth="1"/>
-    <col min="9" max="9" width="13.7265625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="9" customWidth="1"/>
+    <col min="3" max="4" width="33.6328125" customWidth="1"/>
+    <col min="5" max="6" width="12.6328125" customWidth="1"/>
+    <col min="7" max="8" width="3.6328125" customWidth="1"/>
+    <col min="9" max="9" width="12.6328125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="32" t="s">
-        <v>37</v>
-      </c>
+      <c r="B1" s="30"/>
       <c r="C1" s="34" t="s">
         <v>2</v>
       </c>
@@ -9235,30 +9231,32 @@
       </c>
       <c r="F1" s="37"/>
       <c r="G1" s="38" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H1" s="39"/>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="31"/>
-      <c r="B2" s="33"/>
+      <c r="A2" s="33"/>
+      <c r="B2" s="31" t="s">
+        <v>35</v>
+      </c>
       <c r="C2" s="2" t="s">
-        <v>4</v>
+        <v>143</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>5</v>
+        <v>142</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -9266,12 +9264,12 @@
         <v>1992</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>0</v>
@@ -9292,12 +9290,12 @@
         <v>1992</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>0</v>
@@ -9348,12 +9346,12 @@
         <v>1994</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>0</v>
@@ -9404,12 +9402,12 @@
         <v>1996</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>0</v>
@@ -9551,7 +9549,7 @@
         <v>2001</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -9559,7 +9557,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="27" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G13" s="8" t="s">
         <v>0</v>
@@ -9577,7 +9575,7 @@
         <v>2002</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -9585,7 +9583,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G14" s="8" t="s">
         <v>0</v>
@@ -9603,7 +9601,7 @@
         <v>2003</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -9611,7 +9609,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G15" s="8" t="s">
         <v>0</v>
@@ -9629,7 +9627,7 @@
         <v>2004</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -9637,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G16" s="8" t="s">
         <v>0</v>
@@ -9655,7 +9653,7 @@
         <v>2005</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -9663,7 +9661,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G17" s="8" t="s">
         <v>0</v>
@@ -9681,7 +9679,7 @@
         <v>2006</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -9689,7 +9687,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G18" s="8" t="s">
         <v>0</v>
@@ -9707,7 +9705,7 @@
         <v>2007</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -9715,7 +9713,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G19" s="8" t="s">
         <v>0</v>
@@ -9733,7 +9731,7 @@
         <v>2008</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -9741,7 +9739,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G20" s="8" t="s">
         <v>0</v>
@@ -9759,7 +9757,7 @@
         <v>2009</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -9767,7 +9765,7 @@
         <v>0</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G21" s="8" t="s">
         <v>0</v>
@@ -9785,7 +9783,7 @@
         <v>2010</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -9793,7 +9791,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G22" s="8" t="s">
         <v>0</v>
@@ -9811,7 +9809,7 @@
         <v>2011</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
@@ -9819,7 +9817,7 @@
         <v>0</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G23" s="8" t="s">
         <v>0</v>
@@ -9837,7 +9835,7 @@
         <v>2012</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -9845,7 +9843,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G24" s="8" t="s">
         <v>0</v>
@@ -9863,7 +9861,7 @@
         <v>2013</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
@@ -9871,7 +9869,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G25" s="8" t="s">
         <v>0</v>
@@ -9889,7 +9887,7 @@
         <v>2014</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
@@ -9897,7 +9895,7 @@
         <v>0</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G26" s="8" t="s">
         <v>0</v>
@@ -9915,7 +9913,7 @@
         <v>2015</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
@@ -9923,7 +9921,7 @@
         <v>0</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G27" s="8" t="s">
         <v>0</v>
@@ -9941,7 +9939,7 @@
         <v>2016</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
@@ -9949,7 +9947,7 @@
         <v>0</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G28" s="8" t="s">
         <v>0</v>
@@ -9997,7 +9995,7 @@
         <v>2018</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
@@ -10005,7 +10003,7 @@
         <v>0</v>
       </c>
       <c r="F30" s="27" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G30" s="8" t="s">
         <v>0</v>
@@ -10023,7 +10021,7 @@
         <v>2019</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
@@ -10031,7 +10029,7 @@
         <v>0</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G31" s="8" t="s">
         <v>0</v>
@@ -10049,7 +10047,7 @@
         <v>2020</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
@@ -10057,7 +10055,7 @@
         <v>0</v>
       </c>
       <c r="F32" s="27" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G32" s="8" t="s">
         <v>0</v>
@@ -10075,7 +10073,7 @@
         <v>2021</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
@@ -10083,7 +10081,7 @@
         <v>0</v>
       </c>
       <c r="F33" s="27" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G33" s="8" t="s">
         <v>0</v>
@@ -10101,7 +10099,7 @@
         <v>2022</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
@@ -10109,7 +10107,7 @@
         <v>0</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G34" s="8" t="s">
         <v>0</v>
@@ -10183,9 +10181,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <autoFilter ref="B2:F2" xr:uid="{00000000-0001-0000-0300-000000000000}"/>
+  <mergeCells count="4">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:H1"/>
@@ -10202,7 +10200,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H24 H22 H26 H28 H34">
+  <conditionalFormatting sqref="H22 H24 H26 H28 H34">
     <cfRule type="colorScale" priority="66">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -10227,12 +10225,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H14:H21 H23 H25 H27 H31">
-    <cfRule type="containsText" dxfId="172" priority="67" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="170" priority="67" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22 H24 H26 H28 H34">
-    <cfRule type="containsText" dxfId="171" priority="65" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="169" priority="65" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10285,27 +10283,27 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9:G12 G14:G28 G31:G34 H4">
-    <cfRule type="containsText" dxfId="170" priority="71" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="168" priority="71" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G4))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8:H11">
-    <cfRule type="containsText" dxfId="169" priority="69" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="167" priority="69" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H8))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="containsText" dxfId="168" priority="49" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="166" priority="49" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H6))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5">
-    <cfRule type="containsText" dxfId="167" priority="57" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="165" priority="57" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H5))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="containsText" dxfId="166" priority="45" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="164" priority="45" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H7))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10322,7 +10320,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12">
-    <cfRule type="containsText" dxfId="165" priority="41" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="163" priority="41" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H12))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10363,22 +10361,22 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7">
-    <cfRule type="containsText" dxfId="164" priority="33" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="162" priority="33" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G7))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4">
-    <cfRule type="containsText" dxfId="163" priority="39" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="161" priority="39" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6">
-    <cfRule type="containsText" dxfId="162" priority="37" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="160" priority="37" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5">
-    <cfRule type="containsText" dxfId="161" priority="35" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="159" priority="35" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G5))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10395,7 +10393,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8">
-    <cfRule type="containsText" dxfId="160" priority="31" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="158" priority="31" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10412,7 +10410,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G13">
-    <cfRule type="containsText" dxfId="159" priority="27" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="157" priority="27" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G13))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10429,7 +10427,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H32:H33">
-    <cfRule type="containsText" dxfId="158" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="156" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H32))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10446,7 +10444,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G35:G36">
-    <cfRule type="containsText" dxfId="157" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="155" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G35))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10463,7 +10461,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H35:H36">
-    <cfRule type="containsText" dxfId="156" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="154" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H35))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10480,7 +10478,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G30">
-    <cfRule type="containsText" dxfId="155" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="153" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G30))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10497,7 +10495,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H30">
-    <cfRule type="containsText" dxfId="154" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="152" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H30))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10514,7 +10512,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G29">
-    <cfRule type="containsText" dxfId="153" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="151" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G29))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10531,7 +10529,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H29">
-    <cfRule type="containsText" dxfId="152" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="150" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H29))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10548,17 +10546,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="containsText" dxfId="151" priority="6" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="149" priority="6" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3">
-    <cfRule type="containsText" dxfId="150" priority="4" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="148" priority="4" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3">
-    <cfRule type="containsText" dxfId="149" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="147" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10575,7 +10573,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13">
-    <cfRule type="containsText" dxfId="148" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="146" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H13))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10593,26 +10591,25 @@
       <pane xSplit="11" ySplit="2" topLeftCell="L3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L26" sqref="L26"/>
+      <selection pane="bottomRight" activeCell="G2" sqref="B2:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="9" customWidth="1"/>
-    <col min="3" max="4" width="24.81640625" customWidth="1"/>
-    <col min="5" max="7" width="12.453125" customWidth="1"/>
-    <col min="8" max="10" width="3.81640625" customWidth="1"/>
-    <col min="11" max="11" width="13.7265625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="9" customWidth="1"/>
+    <col min="3" max="4" width="33.6328125" customWidth="1"/>
+    <col min="5" max="7" width="12.6328125" customWidth="1"/>
+    <col min="8" max="9" width="3.6328125" customWidth="1"/>
+    <col min="10" max="10" width="3.81640625" customWidth="1"/>
+    <col min="11" max="11" width="12.6328125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="32" t="s">
-        <v>37</v>
-      </c>
+      <c r="B1" s="30"/>
       <c r="C1" s="34" t="s">
         <v>2</v>
       </c>
@@ -10623,37 +10620,39 @@
       <c r="F1" s="40"/>
       <c r="G1" s="37"/>
       <c r="H1" s="38" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I1" s="39"/>
       <c r="J1" s="39"/>
     </row>
     <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="31"/>
-      <c r="B2" s="33"/>
+      <c r="A2" s="33"/>
+      <c r="B2" s="31" t="s">
+        <v>35</v>
+      </c>
       <c r="C2" s="2" t="s">
-        <v>4</v>
+        <v>143</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>5</v>
+        <v>142</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="H2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -10661,7 +10660,7 @@
         <v>1992</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -10669,7 +10668,7 @@
         <v>0</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G3" s="7" t="s">
         <v>0</v>
@@ -10693,15 +10692,15 @@
         <v>1992</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>0</v>
@@ -10761,7 +10760,7 @@
         <v>1994</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
@@ -10769,7 +10768,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>0</v>
@@ -10793,7 +10792,7 @@
         <v>1995</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -10801,7 +10800,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>0</v>
@@ -10825,7 +10824,7 @@
         <v>1996</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -10833,7 +10832,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>0</v>
@@ -11002,7 +11001,7 @@
         <v>2001</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -11013,7 +11012,7 @@
         <v>0</v>
       </c>
       <c r="G13" s="27" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H13" s="8" t="s">
         <v>0</v>
@@ -11070,7 +11069,7 @@
         <v>2003</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -11081,7 +11080,7 @@
         <v>0</v>
       </c>
       <c r="G15" s="27" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H15" s="8" t="s">
         <v>0</v>
@@ -11102,7 +11101,7 @@
         <v>2004</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -11113,7 +11112,7 @@
         <v>0</v>
       </c>
       <c r="G16" s="27" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H16" s="8" t="s">
         <v>0</v>
@@ -11170,7 +11169,7 @@
         <v>2006</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -11181,7 +11180,7 @@
         <v>0</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H18" s="8" t="s">
         <v>0</v>
@@ -11202,7 +11201,7 @@
         <v>2007</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -11213,7 +11212,7 @@
         <v>0</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H19" s="8" t="s">
         <v>0</v>
@@ -11234,7 +11233,7 @@
         <v>2008</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -11245,7 +11244,7 @@
         <v>0</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H20" s="8" t="s">
         <v>0</v>
@@ -11266,7 +11265,7 @@
         <v>2009</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -11277,7 +11276,7 @@
         <v>0</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H21" s="8" t="s">
         <v>0</v>
@@ -11298,7 +11297,7 @@
         <v>2010</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -11309,7 +11308,7 @@
         <v>0</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H22" s="8" t="s">
         <v>0</v>
@@ -11330,7 +11329,7 @@
         <v>2011</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
@@ -11341,7 +11340,7 @@
         <v>0</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H23" s="8" t="s">
         <v>0</v>
@@ -11362,7 +11361,7 @@
         <v>2012</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -11373,7 +11372,7 @@
         <v>0</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H24" s="8" t="s">
         <v>0</v>
@@ -11394,7 +11393,7 @@
         <v>2013</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
@@ -11405,7 +11404,7 @@
         <v>0</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H25" s="8" t="s">
         <v>0</v>
@@ -11426,7 +11425,7 @@
         <v>2014</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
@@ -11437,7 +11436,7 @@
         <v>0</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H26" s="8" t="s">
         <v>0</v>
@@ -11458,7 +11457,7 @@
         <v>2015</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
@@ -11469,7 +11468,7 @@
         <v>0</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H27" s="8" t="s">
         <v>0</v>
@@ -11490,7 +11489,7 @@
         <v>2016</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
@@ -11501,7 +11500,7 @@
         <v>0</v>
       </c>
       <c r="G28" s="27" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H28" s="8" t="s">
         <v>0</v>
@@ -11558,7 +11557,7 @@
         <v>2018</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
@@ -11569,7 +11568,7 @@
         <v>0</v>
       </c>
       <c r="G30" s="27" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H30" s="8" t="s">
         <v>0</v>
@@ -11802,9 +11801,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <autoFilter ref="B2:G2" xr:uid="{00000000-0001-0000-0400-000000000000}"/>
+  <mergeCells count="4">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="H1:J1"/>
@@ -11821,7 +11820,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J25 J23 J27 J18:J21">
+  <conditionalFormatting sqref="J23 J25 J27 J18:J21">
     <cfRule type="colorScale" priority="112">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -11869,7 +11868,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J24 J22 J26">
+  <conditionalFormatting sqref="J22 J24 J26">
     <cfRule type="colorScale" priority="110">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -11882,17 +11881,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J23 J25 J27 J18:J21">
-    <cfRule type="containsText" dxfId="147" priority="111" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="145" priority="111" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J22 J24 J26">
-    <cfRule type="containsText" dxfId="146" priority="109" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="144" priority="109" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10:H11 H14:H16 H30 H18:H28">
-    <cfRule type="containsText" dxfId="145" priority="119" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="143" priority="119" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H10))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11957,12 +11956,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9:I11 I14:I16 I30 I18:I28">
-    <cfRule type="containsText" dxfId="144" priority="115" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="142" priority="115" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I9))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8:J11">
-    <cfRule type="containsText" dxfId="143" priority="113" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="141" priority="113" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J8))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11979,12 +11978,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5:H9">
-    <cfRule type="containsText" dxfId="142" priority="105" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="140" priority="105" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H5))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
-    <cfRule type="containsText" dxfId="141" priority="103" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="139" priority="103" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I5))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12001,22 +12000,22 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J5">
-    <cfRule type="containsText" dxfId="140" priority="101" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="138" priority="101" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J5))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12">
-    <cfRule type="containsText" dxfId="139" priority="85" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="137" priority="85" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H12))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3">
-    <cfRule type="containsText" dxfId="138" priority="97" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="136" priority="97" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6">
-    <cfRule type="containsText" dxfId="137" priority="93" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="135" priority="93" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J6))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12033,7 +12032,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J7">
-    <cfRule type="containsText" dxfId="136" priority="89" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="134" priority="89" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J7))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12050,7 +12049,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7">
-    <cfRule type="containsText" dxfId="135" priority="73" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="133" priority="73" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12079,12 +12078,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12">
-    <cfRule type="containsText" dxfId="134" priority="83" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="132" priority="83" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I12))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J12">
-    <cfRule type="containsText" dxfId="133" priority="81" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="131" priority="81" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J12))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12113,12 +12112,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6">
-    <cfRule type="containsText" dxfId="132" priority="77" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="130" priority="77" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8">
-    <cfRule type="containsText" dxfId="131" priority="75" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="129" priority="75" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12135,12 +12134,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J14">
-    <cfRule type="containsText" dxfId="130" priority="67" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="128" priority="67" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J14))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13">
-    <cfRule type="containsText" dxfId="129" priority="65" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="127" priority="65" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H13))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12157,7 +12156,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13">
-    <cfRule type="containsText" dxfId="128" priority="63" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="126" priority="63" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I13))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12174,17 +12173,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J35:J36">
-    <cfRule type="containsText" dxfId="127" priority="41" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="125" priority="41" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J35))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I35:I36">
-    <cfRule type="containsText" dxfId="126" priority="47" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="124" priority="47" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I35))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J29">
-    <cfRule type="containsText" dxfId="125" priority="35" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="123" priority="35" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J29))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12201,12 +12200,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H31:H32">
-    <cfRule type="containsText" dxfId="124" priority="57" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="122" priority="57" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H31))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I31:I32">
-    <cfRule type="containsText" dxfId="123" priority="55" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="121" priority="55" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I31))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12223,7 +12222,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H33:H34">
-    <cfRule type="containsText" dxfId="122" priority="53" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="120" priority="53" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H33))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12240,7 +12239,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I33:I34">
-    <cfRule type="containsText" dxfId="121" priority="51" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="119" priority="51" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I33))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12257,7 +12256,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H35:H36">
-    <cfRule type="containsText" dxfId="120" priority="49" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="118" priority="49" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H35))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12286,7 +12285,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J31:J32">
-    <cfRule type="containsText" dxfId="119" priority="45" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="117" priority="45" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J31))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12303,7 +12302,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J33:J34">
-    <cfRule type="containsText" dxfId="118" priority="43" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="116" priority="43" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J33))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12320,7 +12319,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H29">
-    <cfRule type="containsText" dxfId="117" priority="39" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="115" priority="39" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H29))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12337,7 +12336,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I29">
-    <cfRule type="containsText" dxfId="116" priority="37" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="114" priority="37" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I29))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12378,12 +12377,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4">
-    <cfRule type="containsText" dxfId="115" priority="31" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="113" priority="31" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J4))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="containsText" dxfId="114" priority="29" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="112" priority="29" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12400,7 +12399,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="containsText" dxfId="113" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="111" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12417,7 +12416,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3">
-    <cfRule type="containsText" dxfId="112" priority="23" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="110" priority="23" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12434,7 +12433,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4">
-    <cfRule type="containsText" dxfId="111" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="109" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12463,7 +12462,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H17">
-    <cfRule type="containsText" dxfId="110" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="108" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H17))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12480,7 +12479,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I17">
-    <cfRule type="containsText" dxfId="109" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="107" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I17))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12497,12 +12496,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J17">
-    <cfRule type="containsText" dxfId="108" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="106" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J17))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J16">
-    <cfRule type="containsText" dxfId="107" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="105" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J16))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12519,7 +12518,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J15">
-    <cfRule type="containsText" dxfId="106" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="104" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J15))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12536,7 +12535,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J13">
-    <cfRule type="containsText" dxfId="105" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="103" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J13))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12553,7 +12552,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J30">
-    <cfRule type="containsText" dxfId="104" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="102" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J30))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12570,7 +12569,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J28">
-    <cfRule type="containsText" dxfId="103" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="101" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J28))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12588,26 +12587,24 @@
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="N1" sqref="N1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I9" sqref="I9"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="9" customWidth="1"/>
-    <col min="3" max="4" width="24.81640625" customWidth="1"/>
-    <col min="5" max="6" width="12.453125" customWidth="1"/>
-    <col min="7" max="8" width="3.81640625" customWidth="1"/>
-    <col min="9" max="9" width="13.7265625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="9" customWidth="1"/>
+    <col min="3" max="4" width="33.6328125" customWidth="1"/>
+    <col min="5" max="6" width="12.6328125" customWidth="1"/>
+    <col min="7" max="8" width="3.6328125" customWidth="1"/>
+    <col min="9" max="9" width="12.6328125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="32" t="s">
-        <v>37</v>
-      </c>
+      <c r="B1" s="30"/>
       <c r="C1" s="34" t="s">
         <v>2</v>
       </c>
@@ -12617,30 +12614,32 @@
       </c>
       <c r="F1" s="37"/>
       <c r="G1" s="38" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H1" s="39"/>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="31"/>
-      <c r="B2" s="33"/>
+      <c r="A2" s="33"/>
+      <c r="B2" s="31" t="s">
+        <v>35</v>
+      </c>
       <c r="C2" s="2" t="s">
-        <v>4</v>
+        <v>144</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>5</v>
+        <v>140</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -12648,12 +12647,12 @@
         <v>1992</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>0</v>
@@ -12674,12 +12673,12 @@
         <v>1992</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>0</v>
@@ -12730,12 +12729,12 @@
         <v>1994</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>0</v>
@@ -12756,12 +12755,12 @@
         <v>1995</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>0</v>
@@ -12782,12 +12781,12 @@
         <v>1996</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="27" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>0</v>
@@ -12929,7 +12928,7 @@
         <v>2001</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -12937,7 +12936,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="27" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G13" s="8" t="s">
         <v>0</v>
@@ -12985,17 +12984,17 @@
         <v>2003</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F15" s="27" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G15" s="8" t="s">
         <v>0</v>
@@ -13013,17 +13012,17 @@
         <v>2004</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F16" s="27" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G16" s="8" t="s">
         <v>0</v>
@@ -13041,10 +13040,10 @@
         <v>2005</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="7" t="s">
@@ -13069,17 +13068,17 @@
         <v>2006</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G18" s="8" t="s">
         <v>0</v>
@@ -13097,17 +13096,17 @@
         <v>2007</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G19" s="8" t="s">
         <v>0</v>
@@ -13125,17 +13124,17 @@
         <v>2008</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G20" s="8" t="s">
         <v>0</v>
@@ -13153,17 +13152,17 @@
         <v>2009</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G21" s="8" t="s">
         <v>0</v>
@@ -13181,17 +13180,17 @@
         <v>2010</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G22" s="8" t="s">
         <v>0</v>
@@ -13209,17 +13208,17 @@
         <v>2011</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F23" s="27" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G23" s="8" t="s">
         <v>0</v>
@@ -13237,17 +13236,17 @@
         <v>2012</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F24" s="27" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G24" s="8" t="s">
         <v>0</v>
@@ -13265,17 +13264,17 @@
         <v>2013</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D25" s="3"/>
       <c r="E25" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F25" s="27" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G25" s="8" t="s">
         <v>0</v>
@@ -13293,17 +13292,17 @@
         <v>2013</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D26" s="3"/>
       <c r="E26" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G26" s="8" t="s">
         <v>0</v>
@@ -13321,17 +13320,17 @@
         <v>2014</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F27" s="27" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G27" s="8" t="s">
         <v>0</v>
@@ -13349,17 +13348,17 @@
         <v>2014</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D28" s="3"/>
       <c r="E28" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G28" s="8" t="s">
         <v>0</v>
@@ -13377,17 +13376,17 @@
         <v>2015</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D29" s="3"/>
       <c r="E29" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F29" s="27" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G29" s="8" t="s">
         <v>0</v>
@@ -13405,17 +13404,17 @@
         <v>2016</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D30" s="3"/>
       <c r="E30" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F30" s="27" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G30" s="8" t="s">
         <v>0</v>
@@ -13433,17 +13432,17 @@
         <v>2016</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D31" s="3"/>
       <c r="E31" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G31" s="8" t="s">
         <v>0</v>
@@ -13491,17 +13490,17 @@
         <v>2018</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D33" s="3"/>
       <c r="E33" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F33" s="27" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G33" s="8" t="s">
         <v>0</v>
@@ -13519,17 +13518,17 @@
         <v>2019</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D34" s="3"/>
       <c r="E34" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F34" s="27" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G34" s="8" t="s">
         <v>0</v>
@@ -13547,17 +13546,17 @@
         <v>2020</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D35" s="3"/>
       <c r="E35" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F35" s="27" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G35" s="8" t="s">
         <v>0</v>
@@ -13575,17 +13574,17 @@
         <v>2021</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D36" s="3"/>
       <c r="E36" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F36" s="27" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G36" s="8" t="s">
         <v>0</v>
@@ -13633,17 +13632,17 @@
         <v>2023</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D38" s="3"/>
       <c r="E38" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G38" s="8" t="s">
         <v>0</v>
@@ -13687,9 +13686,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <autoFilter ref="B2:F2" xr:uid="{00000000-0001-0000-0500-000000000000}"/>
+  <mergeCells count="4">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="E1:F1"/>
@@ -13730,7 +13729,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H28 H22">
+  <conditionalFormatting sqref="H22 H28">
     <cfRule type="colorScale" priority="160">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -13743,12 +13742,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H18:H21">
-    <cfRule type="containsText" dxfId="102" priority="161" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="100" priority="161" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22 H28">
-    <cfRule type="containsText" dxfId="101" priority="159" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="99" priority="159" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13789,12 +13788,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9:G11 G14:G24 G32:G33 G28 G30">
-    <cfRule type="containsText" dxfId="100" priority="165" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="98" priority="165" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G9))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8:H11">
-    <cfRule type="containsText" dxfId="99" priority="163" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="97" priority="163" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H8))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13811,22 +13810,22 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5">
-    <cfRule type="containsText" dxfId="98" priority="155" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="96" priority="155" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G5))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5">
-    <cfRule type="containsText" dxfId="97" priority="153" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="95" priority="153" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H5))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4">
-    <cfRule type="containsText" dxfId="96" priority="151" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="94" priority="151" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H4))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="containsText" dxfId="95" priority="149" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="93" priority="149" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H6))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13843,7 +13842,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="containsText" dxfId="94" priority="147" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="92" priority="147" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H7))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13872,12 +13871,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12">
-    <cfRule type="containsText" dxfId="93" priority="143" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="91" priority="143" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G12))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12">
-    <cfRule type="containsText" dxfId="92" priority="141" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="90" priority="141" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H12))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13894,7 +13893,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7">
-    <cfRule type="containsText" dxfId="91" priority="135" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="89" priority="135" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13923,7 +13922,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H14">
-    <cfRule type="containsText" dxfId="90" priority="131" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="88" priority="131" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H14))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13940,7 +13939,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G13">
-    <cfRule type="containsText" dxfId="89" priority="127" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="87" priority="127" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G13))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13957,7 +13956,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6">
-    <cfRule type="containsText" dxfId="88" priority="109" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="86" priority="109" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13974,7 +13973,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4">
-    <cfRule type="containsText" dxfId="87" priority="119" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="85" priority="119" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13991,7 +13990,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H31">
-    <cfRule type="containsText" dxfId="86" priority="79" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="84" priority="79" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14008,7 +14007,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13">
-    <cfRule type="containsText" dxfId="85" priority="103" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="83" priority="103" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H13))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14037,17 +14036,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G27">
-    <cfRule type="containsText" dxfId="84" priority="89" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="82" priority="89" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G27))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G31">
-    <cfRule type="containsText" dxfId="83" priority="81" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="81" priority="81" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G31))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H32">
-    <cfRule type="containsText" dxfId="82" priority="75" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="80" priority="75" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14064,12 +14063,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G34">
-    <cfRule type="containsText" dxfId="81" priority="71" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="79" priority="71" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G34))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8">
-    <cfRule type="containsText" dxfId="80" priority="55" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="78" priority="55" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G8))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14086,7 +14085,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="containsText" dxfId="79" priority="61" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="77" priority="61" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14103,7 +14102,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3">
-    <cfRule type="containsText" dxfId="78" priority="57" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="76" priority="57" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14132,7 +14131,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H15">
-    <cfRule type="containsText" dxfId="77" priority="53" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="75" priority="53" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H15))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14149,7 +14148,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16">
-    <cfRule type="containsText" dxfId="76" priority="51" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="74" priority="51" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H16))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14166,7 +14165,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H17">
-    <cfRule type="containsText" dxfId="75" priority="49" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="73" priority="49" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H17))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14183,7 +14182,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H23:H24">
-    <cfRule type="containsText" dxfId="74" priority="47" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="72" priority="47" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H23))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14200,7 +14199,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H27">
-    <cfRule type="containsText" dxfId="73" priority="43" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="71" priority="43" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H27))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14217,7 +14216,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H30">
-    <cfRule type="containsText" dxfId="72" priority="41" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="70" priority="41" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H30))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14234,7 +14233,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H26">
-    <cfRule type="containsText" dxfId="71" priority="37" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="69" priority="37" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14251,7 +14250,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G26">
-    <cfRule type="containsText" dxfId="70" priority="39" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="68" priority="39" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G26))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14268,7 +14267,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G25">
-    <cfRule type="containsText" dxfId="69" priority="35" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="67" priority="35" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G25))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14285,7 +14284,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H25">
-    <cfRule type="containsText" dxfId="68" priority="33" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="66" priority="33" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H25))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14314,7 +14313,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G29">
-    <cfRule type="containsText" dxfId="67" priority="28" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="65" priority="28" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G29))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14331,7 +14330,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H29">
-    <cfRule type="containsText" dxfId="66" priority="25" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="64" priority="25" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H29))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14348,7 +14347,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H33">
-    <cfRule type="containsText" dxfId="65" priority="23" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="63" priority="23" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H33))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14365,7 +14364,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H34">
-    <cfRule type="containsText" dxfId="64" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="62" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H34))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14382,7 +14381,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G35">
-    <cfRule type="containsText" dxfId="63" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="61" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G35))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14399,7 +14398,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G36">
-    <cfRule type="containsText" dxfId="62" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="60" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G36))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14416,7 +14415,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H35">
-    <cfRule type="containsText" dxfId="61" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="59" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H35))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14433,7 +14432,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H36">
-    <cfRule type="containsText" dxfId="60" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="58" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H36))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14450,7 +14449,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G37">
-    <cfRule type="containsText" dxfId="59" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="57" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G37))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14467,7 +14466,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H37">
-    <cfRule type="containsText" dxfId="58" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="56" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14484,7 +14483,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G39">
-    <cfRule type="containsText" dxfId="57" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="55" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G39))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14501,12 +14500,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H39">
-    <cfRule type="containsText" dxfId="56" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="54" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H38">
-    <cfRule type="containsText" dxfId="55" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="53" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14523,7 +14522,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G38">
-    <cfRule type="containsText" dxfId="54" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="52" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G38))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14537,30 +14536,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:J38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I19" sqref="I19"/>
+      <selection pane="bottomRight" activeCell="F2" sqref="B2:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="9" customWidth="1"/>
-    <col min="3" max="4" width="24.81640625" customWidth="1"/>
-    <col min="5" max="6" width="12.453125" customWidth="1"/>
-    <col min="7" max="8" width="3.81640625" customWidth="1"/>
-    <col min="9" max="9" width="13.7265625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="9" customWidth="1"/>
+    <col min="3" max="4" width="33.6328125" customWidth="1"/>
+    <col min="5" max="6" width="12.6328125" customWidth="1"/>
+    <col min="7" max="8" width="3.6328125" customWidth="1"/>
+    <col min="9" max="9" width="12.6328125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="32" t="s">
-        <v>37</v>
-      </c>
+      <c r="B1" s="30"/>
       <c r="C1" s="34" t="s">
         <v>2</v>
       </c>
@@ -14570,30 +14567,32 @@
       </c>
       <c r="F1" s="37"/>
       <c r="G1" s="38" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H1" s="39"/>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="31"/>
-      <c r="B2" s="33"/>
+      <c r="A2" s="33"/>
+      <c r="B2" s="31" t="s">
+        <v>35</v>
+      </c>
       <c r="C2" s="2" t="s">
-        <v>4</v>
+        <v>145</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>5</v>
+        <v>140</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -14601,7 +14600,7 @@
         <v>1992</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -14687,12 +14686,12 @@
         <v>1995</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="27" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>0</v>
@@ -14713,12 +14712,12 @@
         <v>1996</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>0</v>
@@ -14860,7 +14859,7 @@
         <v>2001</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -14868,7 +14867,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G12" s="8" t="s">
         <v>0</v>
@@ -14886,7 +14885,7 @@
         <v>2002</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -14894,7 +14893,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G13" s="8" t="s">
         <v>0</v>
@@ -14912,7 +14911,7 @@
         <v>2003</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -14920,7 +14919,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G14" s="8" t="s">
         <v>0</v>
@@ -14938,17 +14937,17 @@
         <v>2004</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G15" s="8" t="s">
         <v>0</v>
@@ -14966,17 +14965,17 @@
         <v>2005</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G16" s="8" t="s">
         <v>0</v>
@@ -14994,17 +14993,17 @@
         <v>2006</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G17" s="8" t="s">
         <v>0</v>
@@ -15052,17 +15051,17 @@
         <v>2008</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F19" s="27" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G19" s="8" t="s">
         <v>0</v>
@@ -15110,17 +15109,17 @@
         <v>2010</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G21" s="8" t="s">
         <v>0</v>
@@ -15138,17 +15137,17 @@
         <v>2011</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G22" s="8" t="s">
         <v>0</v>
@@ -15166,17 +15165,17 @@
         <v>2012</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G23" s="8" t="s">
         <v>0</v>
@@ -15194,17 +15193,17 @@
         <v>2013</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F24" s="27" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G24" s="8" t="s">
         <v>0</v>
@@ -15222,17 +15221,17 @@
         <v>2013</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D25" s="3"/>
       <c r="E25" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F25" s="27" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G25" s="8" t="s">
         <v>0</v>
@@ -15247,17 +15246,17 @@
         <v>2014</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D26" s="3"/>
       <c r="E26" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G26" s="8" t="s">
         <v>0</v>
@@ -15275,17 +15274,17 @@
         <v>2015</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F27" s="27" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G27" s="8" t="s">
         <v>0</v>
@@ -15303,17 +15302,17 @@
         <v>2016</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D28" s="3"/>
       <c r="E28" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F28" s="27" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G28" s="8" t="s">
         <v>0</v>
@@ -15361,17 +15360,17 @@
         <v>2018</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D30" s="3"/>
       <c r="E30" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G30" s="8" t="s">
         <v>0</v>
@@ -15389,17 +15388,17 @@
         <v>2018</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D31" s="3"/>
       <c r="E31" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F31" s="27" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G31" s="8" t="s">
         <v>0</v>
@@ -15414,15 +15413,15 @@
         <v>2018</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D32" s="3"/>
       <c r="E32" s="7"/>
       <c r="F32" s="27" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G32" s="8" t="s">
         <v>0</v>
@@ -15437,17 +15436,17 @@
         <v>2019</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D33" s="3"/>
       <c r="E33" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G33" s="8" t="s">
         <v>0</v>
@@ -15465,17 +15464,17 @@
         <v>2020</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D34" s="3"/>
       <c r="E34" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G34" s="8" t="s">
         <v>0</v>
@@ -15493,17 +15492,17 @@
         <v>2021</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D35" s="3"/>
       <c r="E35" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G35" s="8" t="s">
         <v>0</v>
@@ -15521,17 +15520,17 @@
         <v>2022</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D36" s="3"/>
       <c r="E36" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G36" s="8" t="s">
         <v>0</v>
@@ -15549,17 +15548,17 @@
         <v>2023</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D37" s="3"/>
       <c r="E37" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G37" s="8" t="s">
         <v>0</v>
@@ -15577,17 +15576,17 @@
         <v>2024</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D38" s="3"/>
       <c r="E38" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G38" s="8" t="s">
         <v>0</v>
@@ -15601,14 +15600,14 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <autoFilter ref="B2:F2" xr:uid="{00000000-0001-0000-0600-000000000000}"/>
+  <mergeCells count="4">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:H1"/>
   </mergeCells>
-  <conditionalFormatting sqref="H22 H27 H13:H17 H33 H35 H37">
+  <conditionalFormatting sqref="H27 H22 H13:H17 H33 H35 H37">
     <cfRule type="colorScale" priority="94">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -15668,7 +15667,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H23 H21 H26 H28 H30">
+  <conditionalFormatting sqref="H21 H23 H26 H28 H30">
     <cfRule type="colorScale" priority="92">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -15681,17 +15680,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22 H27 H13:H17 H33 H35 H37">
-    <cfRule type="containsText" dxfId="53" priority="93" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="51" priority="93" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H21 H23 H26 H28 H30">
-    <cfRule type="containsText" dxfId="52" priority="91" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="50" priority="91" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="containsText" dxfId="51" priority="83" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="49" priority="83" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15720,17 +15719,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7">
-    <cfRule type="containsText" dxfId="50" priority="69" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="48" priority="69" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8:G10 G14:G17 G30 G21:G24 G19 G26:G28 G33 G35 G37">
-    <cfRule type="containsText" dxfId="49" priority="97" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="47" priority="97" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G8))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7:H10">
-    <cfRule type="containsText" dxfId="48" priority="95" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="46" priority="95" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H7))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15747,17 +15746,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:G5">
-    <cfRule type="containsText" dxfId="47" priority="87" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="45" priority="87" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G4))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H5">
-    <cfRule type="containsText" dxfId="46" priority="85" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="44" priority="85" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H4))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G13">
-    <cfRule type="containsText" dxfId="45" priority="47" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="43" priority="47" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G13))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15774,7 +15773,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="containsText" dxfId="44" priority="79" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="42" priority="79" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H6))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15803,12 +15802,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11">
-    <cfRule type="containsText" dxfId="43" priority="75" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="41" priority="75" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G11))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11">
-    <cfRule type="containsText" dxfId="42" priority="73" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="40" priority="73" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H11))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15837,12 +15836,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6">
-    <cfRule type="containsText" dxfId="40" priority="31" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="39" priority="31" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G6))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G18">
-    <cfRule type="containsText" dxfId="39" priority="25" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="38" priority="25" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G18))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15883,12 +15882,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G29">
-    <cfRule type="containsText" dxfId="38" priority="41" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="37" priority="41" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G29))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24">
-    <cfRule type="containsText" dxfId="37" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="36" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H24))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15905,7 +15904,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H20">
-    <cfRule type="containsText" dxfId="36" priority="33" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="35" priority="33" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H20))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15934,12 +15933,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G20">
-    <cfRule type="containsText" dxfId="35" priority="35" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="34" priority="35" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G20))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H29">
-    <cfRule type="containsText" dxfId="34" priority="39" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="33" priority="39" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H29))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15956,7 +15955,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H18">
-    <cfRule type="containsText" dxfId="33" priority="23" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="32" priority="23" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H18))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15973,7 +15972,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G31">
-    <cfRule type="containsText" dxfId="32" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="31" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G31))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15990,12 +15989,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12">
-    <cfRule type="containsText" dxfId="31" priority="29" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="30" priority="29" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12">
-    <cfRule type="containsText" dxfId="30" priority="27" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="29" priority="27" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G12))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16012,7 +16011,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H19">
-    <cfRule type="containsText" dxfId="29" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="28" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H19))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16029,7 +16028,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H32">
-    <cfRule type="containsText" dxfId="28" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="27" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H32))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16046,7 +16045,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G25">
-    <cfRule type="containsText" dxfId="27" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="26" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G25))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16063,7 +16062,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H25">
-    <cfRule type="containsText" dxfId="26" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="25" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H25))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16080,7 +16079,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H31">
-    <cfRule type="containsText" dxfId="25" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="24" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H31))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16097,11 +16096,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G32">
-    <cfRule type="containsText" dxfId="24" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="23" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G32))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H36 H34 H38">
+  <conditionalFormatting sqref="H34 H36 H38">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -16114,11 +16113,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H34 H36 H38">
-    <cfRule type="containsText" dxfId="23" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="22" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G36 G34 G38">
+  <conditionalFormatting sqref="G34 G36 G38">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -16131,7 +16130,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G34 G36 G38">
-    <cfRule type="containsText" dxfId="22" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="21" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G34))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16148,7 +16147,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="20" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16166,53 +16165,53 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E32" sqref="E32"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="9" customWidth="1"/>
-    <col min="3" max="4" width="24.81640625" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" customWidth="1"/>
-    <col min="6" max="6" width="3.81640625" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="9" customWidth="1"/>
+    <col min="3" max="4" width="33.6328125" customWidth="1"/>
+    <col min="5" max="5" width="12.6328125" customWidth="1"/>
+    <col min="6" max="6" width="3.6328125" customWidth="1"/>
+    <col min="7" max="7" width="12.6328125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="C1" s="43" t="s">
+      <c r="B1" s="30"/>
+      <c r="C1" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="44"/>
+      <c r="D1" s="35"/>
       <c r="E1" s="11" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G1" s="14"/>
       <c r="H1" s="14"/>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="42"/>
-      <c r="B2" s="33"/>
-      <c r="C2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>5</v>
+      <c r="A2" s="33"/>
+      <c r="B2" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>142</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G2" s="17"/>
       <c r="H2" s="18"/>
@@ -16848,12 +16847,12 @@
         <v>2018</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
       <c r="E29" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F29" s="8">
         <v>1</v>
@@ -16868,12 +16867,12 @@
         <v>2019</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="E30" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F30" s="8">
         <v>0</v>
@@ -16888,12 +16887,12 @@
         <v>2020</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
       <c r="E31" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F31" s="8">
         <v>0</v>
@@ -16908,12 +16907,12 @@
         <v>2021</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
       <c r="E32" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F32" s="8">
         <v>0</v>
@@ -16928,12 +16927,12 @@
         <v>2022</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
       <c r="E33" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F33" s="8">
         <v>0</v>
@@ -16948,12 +16947,12 @@
         <v>2023</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
       <c r="E34" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F34" s="8">
         <v>0</v>
@@ -16968,12 +16967,12 @@
         <v>2024</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
       <c r="E35" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F35" s="8">
         <v>0</v>
@@ -16996,13 +16995,13 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <autoFilter ref="B2:E2" xr:uid="{00000000-0001-0000-0700-000000000000}"/>
+  <mergeCells count="2">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="F29">
-    <cfRule type="containsText" dxfId="21" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="19" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17031,7 +17030,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F30">
-    <cfRule type="containsText" dxfId="20" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="18" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17048,41 +17047,41 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F28">
-    <cfRule type="containsText" dxfId="19" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="17" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="F33 F31 F35">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="F31 F33 F35">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F31 F33 F35">
-    <cfRule type="containsText" dxfId="18" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="16" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="F34 F32">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="F32 F34">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F32 F34">
-    <cfRule type="containsText" dxfId="17" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="15" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17100,53 +17099,53 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G43" sqref="G43"/>
+      <selection pane="bottomRight" activeCell="E2" sqref="B2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="9" customWidth="1"/>
-    <col min="3" max="4" width="24.81640625" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" customWidth="1"/>
-    <col min="6" max="6" width="3.81640625" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="9" customWidth="1"/>
+    <col min="3" max="4" width="33.6328125" customWidth="1"/>
+    <col min="5" max="5" width="12.6328125" customWidth="1"/>
+    <col min="6" max="6" width="3.6328125" customWidth="1"/>
+    <col min="7" max="7" width="12.6328125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="C1" s="43" t="s">
+      <c r="B1" s="30"/>
+      <c r="C1" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="44"/>
+      <c r="D1" s="35"/>
       <c r="E1" s="25" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G1" s="14"/>
       <c r="H1" s="14"/>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="42"/>
-      <c r="B2" s="33"/>
-      <c r="C2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>5</v>
+      <c r="A2" s="33"/>
+      <c r="B2" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>142</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G2" s="17"/>
       <c r="H2" s="18"/>
@@ -17806,12 +17805,12 @@
         <v>2019</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="E30" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F30" s="8">
         <v>0</v>
@@ -17826,12 +17825,12 @@
         <v>2020</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
       <c r="E31" s="27" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F31" s="8" t="s">
         <v>0</v>
@@ -17846,12 +17845,12 @@
         <v>2021</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
       <c r="E32" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F32" s="8">
         <v>0</v>
@@ -17866,12 +17865,12 @@
         <v>2022</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
       <c r="E33" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F33" s="8">
         <v>0</v>
@@ -17886,12 +17885,12 @@
         <v>2023</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
       <c r="E34" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F34" s="8">
         <v>0</v>
@@ -17906,12 +17905,12 @@
         <v>2024</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
       <c r="E35" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F35" s="8">
         <v>0</v>
@@ -17934,9 +17933,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <autoFilter ref="B2:E2" xr:uid="{CB318939-81EA-4959-8FC6-BAE2212D21CB}"/>
+  <mergeCells count="2">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="F30">
@@ -17952,7 +17951,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F30">
-    <cfRule type="containsText" dxfId="16" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="14" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17969,11 +17968,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F28">
-    <cfRule type="containsText" dxfId="15" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="13" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F35 F33">
+  <conditionalFormatting sqref="F33 F35">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -17986,24 +17985,24 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F33 F35">
-    <cfRule type="containsText" dxfId="14" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="12" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="F34 F32">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="F32 F34">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F32 F34">
-    <cfRule type="containsText" dxfId="13" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="11" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18020,7 +18019,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F29">
-    <cfRule type="containsText" dxfId="12" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="10" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F29))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18037,7 +18036,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F31">
-    <cfRule type="containsText" dxfId="11" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="9" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F31))))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Collections/Ukraine/#Ukraine#Regular#[1992-present]#circulation_quality — копия.xlsx
+++ b/Collections/Ukraine/#Ukraine#Regular#[1992-present]#circulation_quality — копия.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\Ukraine\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02A1FC6E-0B82-480E-BF38-9E38D4EE9723}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{501CFF7E-A217-4A81-9FD2-162811C1445D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2280" yWindow="2280" windowWidth="33150" windowHeight="17700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1копійка" sheetId="4" r:id="rId1"/>
@@ -3873,7 +3873,7 @@
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K16" sqref="K16"/>
+      <selection pane="bottomRight" activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4520,7 +4520,7 @@
         <v>0</v>
       </c>
       <c r="H23" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23" s="12" t="str">
         <f t="shared" si="0"/>
@@ -4937,7 +4937,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(H8))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H21 H23">
+  <conditionalFormatting sqref="H23 H21">
     <cfRule type="colorScale" priority="52">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -6142,7 +6142,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F34 F32">
+  <conditionalFormatting sqref="F32 F34">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -7334,7 +7334,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H21 H23">
+  <conditionalFormatting sqref="H23 H21">
     <cfRule type="colorScale" priority="56">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -8779,7 +8779,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H21 H23 H25">
+  <conditionalFormatting sqref="H23 H21 H25">
     <cfRule type="colorScale" priority="52">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -10200,7 +10200,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H22 H24 H26 H28 H34">
+  <conditionalFormatting sqref="H24 H22 H26 H28 H34">
     <cfRule type="colorScale" priority="66">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -11820,7 +11820,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J23 J25 J27 J18:J21">
+  <conditionalFormatting sqref="J25 J23 J27 J18:J21">
     <cfRule type="colorScale" priority="112">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -11868,7 +11868,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J22 J24 J26">
+  <conditionalFormatting sqref="J24 J22 J26">
     <cfRule type="colorScale" priority="110">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -13729,7 +13729,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H22 H28">
+  <conditionalFormatting sqref="H28 H22">
     <cfRule type="colorScale" priority="160">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -15607,7 +15607,7 @@
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:H1"/>
   </mergeCells>
-  <conditionalFormatting sqref="H27 H22 H13:H17 H33 H35 H37">
+  <conditionalFormatting sqref="H22 H27 H13:H17 H33 H35 H37">
     <cfRule type="colorScale" priority="94">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -15667,7 +15667,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H21 H23 H26 H28 H30">
+  <conditionalFormatting sqref="H23 H21 H26 H28 H30">
     <cfRule type="colorScale" priority="92">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -16100,7 +16100,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(G32))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H34 H36 H38">
+  <conditionalFormatting sqref="H36 H34 H38">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -16117,7 +16117,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G34 G36 G38">
+  <conditionalFormatting sqref="G36 G34 G38">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -17051,7 +17051,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F33 F31 F35">
+  <conditionalFormatting sqref="F31 F33 F35">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -17068,7 +17068,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F34 F32">
+  <conditionalFormatting sqref="F32 F34">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -17972,7 +17972,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F33 F35">
+  <conditionalFormatting sqref="F35 F33">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -17989,7 +17989,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F34 F32">
+  <conditionalFormatting sqref="F32 F34">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="formula" val="0"/>

--- a/Collections/Ukraine/#Ukraine#Regular#[1992-present]#circulation_quality — копия.xlsx
+++ b/Collections/Ukraine/#Ukraine#Regular#[1992-present]#circulation_quality — копия.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\Ukraine\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{501CFF7E-A217-4A81-9FD2-162811C1445D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74C21780-91C0-4315-B01E-309D404D1CE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2280" yWindow="2280" windowWidth="33150" windowHeight="17700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2280" yWindow="2280" windowWidth="33150" windowHeight="17700" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1копійка" sheetId="4" r:id="rId1"/>
@@ -3869,7 +3869,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -4937,7 +4937,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(H8))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H23 H21">
+  <conditionalFormatting sqref="H21 H23">
     <cfRule type="colorScale" priority="52">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -5270,11 +5270,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C985906-1F40-4F9F-A28B-610F2E45FBC5}">
   <dimension ref="A1:H54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E2" sqref="B2:E2"/>
+      <selection pane="bottomRight" activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -6032,7 +6032,7 @@
         <v>139</v>
       </c>
       <c r="F32" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G32" s="19" t="str">
         <f t="shared" si="0"/>
@@ -6142,7 +6142,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F32 F34">
+  <conditionalFormatting sqref="F34 F32">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -7334,7 +7334,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H23 H21">
+  <conditionalFormatting sqref="H21 H23">
     <cfRule type="colorScale" priority="56">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -8779,7 +8779,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H23 H21 H25">
+  <conditionalFormatting sqref="H21 H23 H25">
     <cfRule type="colorScale" priority="52">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -9204,7 +9204,7 @@
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2:F2"/>
+      <selection pane="bottomRight" activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -10035,7 +10035,7 @@
         <v>0</v>
       </c>
       <c r="H31" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31" s="12" t="str">
         <f t="shared" ref="I31:I32" si="1">IF(OR(AND(G31&gt;1,G31&lt;&gt;"-"),AND(H31&gt;1,H31&lt;&gt;"-")),"Can exchange","")</f>
@@ -10200,7 +10200,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H24 H22 H26 H28 H34">
+  <conditionalFormatting sqref="H22 H24 H26 H28 H34">
     <cfRule type="colorScale" priority="66">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -11820,7 +11820,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J25 J23 J27 J18:J21">
+  <conditionalFormatting sqref="J23 J25 J27 J18:J21">
     <cfRule type="colorScale" priority="112">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -11868,7 +11868,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J24 J22 J26">
+  <conditionalFormatting sqref="J22 J24 J26">
     <cfRule type="colorScale" priority="110">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -13729,7 +13729,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H28 H22">
+  <conditionalFormatting sqref="H22 H28">
     <cfRule type="colorScale" priority="160">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -15607,7 +15607,7 @@
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:H1"/>
   </mergeCells>
-  <conditionalFormatting sqref="H22 H27 H13:H17 H33 H35 H37">
+  <conditionalFormatting sqref="H27 H22 H13:H17 H33 H35 H37">
     <cfRule type="colorScale" priority="94">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -15667,7 +15667,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H23 H21 H26 H28 H30">
+  <conditionalFormatting sqref="H21 H23 H26 H28 H30">
     <cfRule type="colorScale" priority="92">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -16100,7 +16100,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(G32))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H36 H34 H38">
+  <conditionalFormatting sqref="H34 H36 H38">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -16117,7 +16117,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G36 G34 G38">
+  <conditionalFormatting sqref="G34 G36 G38">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -17051,7 +17051,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F31 F33 F35">
+  <conditionalFormatting sqref="F33 F31 F35">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -17068,7 +17068,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F32 F34">
+  <conditionalFormatting sqref="F34 F32">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -17972,7 +17972,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F35 F33">
+  <conditionalFormatting sqref="F33 F35">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -17989,7 +17989,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F32 F34">
+  <conditionalFormatting sqref="F34 F32">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="formula" val="0"/>
